--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>53.565073535634</v>
+        <v>4.573149333333333</v>
       </c>
       <c r="H2">
-        <v>53.565073535634</v>
+        <v>13.719448</v>
       </c>
       <c r="I2">
-        <v>0.8767299985221707</v>
+        <v>0.06199325535045235</v>
       </c>
       <c r="J2">
-        <v>0.8767299985221707</v>
+        <v>0.06199325535045234</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N2">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O2">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P2">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q2">
-        <v>535.1668362019337</v>
+        <v>264.2222301324569</v>
       </c>
       <c r="R2">
-        <v>535.1668362019337</v>
+        <v>2378.000071192112</v>
       </c>
       <c r="S2">
-        <v>0.1766976200817351</v>
+        <v>0.03592815460911474</v>
       </c>
       <c r="T2">
-        <v>0.1766976200817351</v>
+        <v>0.03592815460911473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>53.565073535634</v>
+        <v>4.573149333333333</v>
       </c>
       <c r="H3">
-        <v>53.565073535634</v>
+        <v>13.719448</v>
       </c>
       <c r="I3">
-        <v>0.8767299985221707</v>
+        <v>0.06199325535045235</v>
       </c>
       <c r="J3">
-        <v>0.8767299985221707</v>
+        <v>0.06199325535045234</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N3">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O3">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P3">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q3">
-        <v>491.6923127131349</v>
+        <v>42.43304687695911</v>
       </c>
       <c r="R3">
-        <v>491.6923127131349</v>
+        <v>381.897421892632</v>
       </c>
       <c r="S3">
-        <v>0.1623435078404458</v>
+        <v>0.005769919767791432</v>
       </c>
       <c r="T3">
-        <v>0.1623435078404458</v>
+        <v>0.005769919767791432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>53.565073535634</v>
+        <v>4.573149333333333</v>
       </c>
       <c r="H4">
-        <v>53.565073535634</v>
+        <v>13.719448</v>
       </c>
       <c r="I4">
-        <v>0.8767299985221707</v>
+        <v>0.06199325535045235</v>
       </c>
       <c r="J4">
-        <v>0.8767299985221707</v>
+        <v>0.06199325535045234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4023976086992</v>
+        <v>32.637132</v>
       </c>
       <c r="N4">
-        <v>30.4023976086992</v>
+        <v>97.91139600000001</v>
       </c>
       <c r="O4">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="P4">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="Q4">
-        <v>1628.506663569556</v>
+        <v>149.254478447712</v>
       </c>
       <c r="R4">
-        <v>1628.506663569556</v>
+        <v>1343.290306029408</v>
       </c>
       <c r="S4">
-        <v>0.5376888705999898</v>
+        <v>0.02029518097354618</v>
       </c>
       <c r="T4">
-        <v>0.5376888705999898</v>
+        <v>0.02029518097354618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.53135709400579</v>
+        <v>57.35861733333333</v>
       </c>
       <c r="H5">
-        <v>7.53135709400579</v>
+        <v>172.075852</v>
       </c>
       <c r="I5">
-        <v>0.1232700014778293</v>
+        <v>0.7775489387534139</v>
       </c>
       <c r="J5">
-        <v>0.1232700014778293</v>
+        <v>0.7775489387534138</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N5">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O5">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P5">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q5">
-        <v>75.24553374550618</v>
+        <v>3314.001071135121</v>
       </c>
       <c r="R5">
-        <v>75.24553374550618</v>
+        <v>29826.00964021609</v>
       </c>
       <c r="S5">
-        <v>0.02484404083961956</v>
+        <v>0.4506280292874134</v>
       </c>
       <c r="T5">
-        <v>0.02484404083961956</v>
+        <v>0.4506280292874133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.53135709400579</v>
+        <v>57.35861733333333</v>
       </c>
       <c r="H6">
-        <v>7.53135709400579</v>
+        <v>172.075852</v>
       </c>
       <c r="I6">
-        <v>0.1232700014778293</v>
+        <v>0.7775489387534139</v>
       </c>
       <c r="J6">
-        <v>0.1232700014778293</v>
+        <v>0.7775489387534138</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N6">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O6">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P6">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q6">
-        <v>69.1329282868752</v>
+        <v>532.2154866805631</v>
       </c>
       <c r="R6">
-        <v>69.1329282868752</v>
+        <v>4789.939380125068</v>
       </c>
       <c r="S6">
-        <v>0.02282582378285266</v>
+        <v>0.0723690821973561</v>
       </c>
       <c r="T6">
-        <v>0.02282582378285266</v>
+        <v>0.0723690821973561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>57.35861733333333</v>
+      </c>
+      <c r="H7">
+        <v>172.075852</v>
+      </c>
+      <c r="I7">
+        <v>0.7775489387534139</v>
+      </c>
+      <c r="J7">
+        <v>0.7775489387534138</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>32.637132</v>
+      </c>
+      <c r="N7">
+        <v>97.91139600000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3273772422308855</v>
+      </c>
+      <c r="P7">
+        <v>0.3273772422308855</v>
+      </c>
+      <c r="Q7">
+        <v>1872.020765245488</v>
+      </c>
+      <c r="R7">
+        <v>16848.18688720939</v>
+      </c>
+      <c r="S7">
+        <v>0.2545518272686444</v>
+      </c>
+      <c r="T7">
+        <v>0.2545518272686443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.83673133333333</v>
+      </c>
+      <c r="H8">
+        <v>35.510194</v>
+      </c>
+      <c r="I8">
+        <v>0.1604578058961338</v>
+      </c>
+      <c r="J8">
+        <v>0.1604578058961338</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>57.77686466666668</v>
+      </c>
+      <c r="N8">
+        <v>173.330594</v>
+      </c>
+      <c r="O8">
+        <v>0.5795494107546101</v>
+      </c>
+      <c r="P8">
+        <v>0.57954941075461</v>
+      </c>
+      <c r="Q8">
+        <v>683.889224341693</v>
+      </c>
+      <c r="R8">
+        <v>6155.003019075237</v>
+      </c>
+      <c r="S8">
+        <v>0.09299322685808194</v>
+      </c>
+      <c r="T8">
+        <v>0.0929932268580819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.53135709400579</v>
-      </c>
-      <c r="H7">
-        <v>7.53135709400579</v>
-      </c>
-      <c r="I7">
-        <v>0.1232700014778293</v>
-      </c>
-      <c r="J7">
-        <v>0.1232700014778293</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>30.4023976086992</v>
-      </c>
-      <c r="N7">
-        <v>30.4023976086992</v>
-      </c>
-      <c r="O7">
-        <v>0.6132890074553469</v>
-      </c>
-      <c r="P7">
-        <v>0.6132890074553469</v>
-      </c>
-      <c r="Q7">
-        <v>228.9713129050614</v>
-      </c>
-      <c r="R7">
-        <v>228.9713129050614</v>
-      </c>
-      <c r="S7">
-        <v>0.07560013685535705</v>
-      </c>
-      <c r="T7">
-        <v>0.07560013685535705</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.83673133333333</v>
+      </c>
+      <c r="H9">
+        <v>35.510194</v>
+      </c>
+      <c r="I9">
+        <v>0.1604578058961338</v>
+      </c>
+      <c r="J9">
+        <v>0.1604578058961338</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.278736333333333</v>
+      </c>
+      <c r="N9">
+        <v>27.836209</v>
+      </c>
+      <c r="O9">
+        <v>0.09307334701450438</v>
+      </c>
+      <c r="P9">
+        <v>0.09307334701450438</v>
+      </c>
+      <c r="Q9">
+        <v>109.8299090905051</v>
+      </c>
+      <c r="R9">
+        <v>988.469181814546</v>
+      </c>
+      <c r="S9">
+        <v>0.01493434504935685</v>
+      </c>
+      <c r="T9">
+        <v>0.01493434504935684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.83673133333333</v>
+      </c>
+      <c r="H10">
+        <v>35.510194</v>
+      </c>
+      <c r="I10">
+        <v>0.1604578058961338</v>
+      </c>
+      <c r="J10">
+        <v>0.1604578058961338</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>32.637132</v>
+      </c>
+      <c r="N10">
+        <v>97.91139600000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3273772422308855</v>
+      </c>
+      <c r="P10">
+        <v>0.3273772422308855</v>
+      </c>
+      <c r="Q10">
+        <v>386.316962974536</v>
+      </c>
+      <c r="R10">
+        <v>3476.852666770824</v>
+      </c>
+      <c r="S10">
+        <v>0.052530233988695</v>
+      </c>
+      <c r="T10">
+        <v>0.052530233988695</v>
       </c>
     </row>
   </sheetData>
